--- a/StructureDefinition-assistance-needs-profile.xlsx
+++ b/StructureDefinition-assistance-needs-profile.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T22:43:21+00:00</t>
+    <t>2024-11-03T22:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-assistance-needs-profile.xlsx
+++ b/StructureDefinition-assistance-needs-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-03T22:10:48+00:00</t>
+    <t>2024-11-28T19:58:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-assistance-needs-profile.xlsx
+++ b/StructureDefinition-assistance-needs-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:58:40+00:00</t>
+    <t>2024-11-28T22:16:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
